--- a/2.regression/2.5 逻辑回归.xlsx
+++ b/2.regression/2.5 逻辑回归.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2.5 Logistic regression-书例表2.15" sheetId="1" r:id="rId1"/>
@@ -391,15 +391,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>600530</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>169334</xdr:rowOff>
+      <xdr:colOff>635611</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7698</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>58510</xdr:colOff>
+      <xdr:colOff>93591</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>136620</xdr:rowOff>
+      <xdr:rowOff>152014</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -416,8 +416,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14587463" y="1243391"/>
-          <a:ext cx="4605714" cy="2652429"/>
+          <a:off x="14607535" y="1246910"/>
+          <a:ext cx="4599556" cy="2622740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -629,8 +629,8 @@
       <xdr:rowOff>122765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>574921</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>556514</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>15866</xdr:rowOff>
     </xdr:to>
@@ -928,8 +928,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <f>SUMPRODUCT(B2:G2,Q$2:V$2)</f>
-        <v>-0.88894231157192327</v>
+        <f t="shared" ref="I2:I41" si="0">SUMPRODUCT(B2:G2,Q$2:V$2)</f>
+        <v>-2.6213275962025491</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J41" si="0">1/(1+EXP(-I2))</f>
-        <v>0.29132814541111252</v>
+        <f t="shared" ref="J2:J41" si="1">1/(1+EXP(-I2))</f>
+        <v>6.7778361984691476E-2</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K41" si="1">-(H2*LOG(J2)+(1-H2)*LOG(1-J2))</f>
-        <v>0.53561755585890081</v>
+        <f t="shared" ref="K2:K41" si="2">-(H2*LOG(J2)+(1-H2)*LOG(1-J2))</f>
+        <v>1.1689089310667395</v>
       </c>
       <c r="L2">
         <f>IF(J2&gt;0.5,1,0)</f>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="N2" s="7">
         <f>AVERAGE(K2:K41)</f>
-        <v>0.14648265673336858</v>
+        <v>0.22579849617397682</v>
       </c>
       <c r="O2" s="1">
         <v>5.0000000000000001E-4</v>
@@ -1060,22 +1060,22 @@
         <v>31</v>
       </c>
       <c r="Q2">
-        <v>-7.1195638908322803</v>
+        <v>-4.2478967268462586</v>
       </c>
       <c r="R2">
-        <v>0.10075755073321316</v>
+        <v>0.16340021348306408</v>
       </c>
       <c r="S2">
-        <v>1.3571833669361351E-2</v>
+        <v>-4.5468798783779719E-2</v>
       </c>
       <c r="T2">
-        <v>-2.4237300204740133E-4</v>
+        <v>-0.15521403372480594</v>
       </c>
       <c r="U2">
-        <v>-1.083269701413115</v>
+        <v>-2.8800314147279042</v>
       </c>
       <c r="V2">
-        <v>-0.60652276048033871</v>
+        <v>-3.2453411076569401</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
@@ -1104,23 +1104,23 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f>SUMPRODUCT(B3:G3,Q$2:V$2)</f>
-        <v>-1.9110591445816063</v>
+        <f t="shared" si="0"/>
+        <v>-4.8307170671486332</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" si="0"/>
-        <v>0.12886190951975657</v>
+        <f t="shared" si="1"/>
+        <v>7.9176076318542947E-3</v>
       </c>
       <c r="K3">
-        <f t="shared" si="1"/>
-        <v>5.9912996335589747E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.4522582239197449E-3</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L41" si="2">IF(J3&gt;0.5,1,0)</f>
+        <f t="shared" ref="L3:L41" si="3">IF(J3&gt;0.5,1,0)</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M41" si="3">ABS(H3-L3)</f>
+        <f t="shared" ref="M3:M41" si="4">ABS(H3-L3)</f>
         <v>0</v>
       </c>
       <c r="N3" s="7" t="s">
@@ -1130,28 +1130,28 @@
         <v>18</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:V3" si="4">$O$2*(SUMPRODUCT($J$2:$J$41,B$2:B$41)-SUMPRODUCT($H$2:$H$41,B$2:B$41))/40</f>
-        <v>8.1319834888085036E-7</v>
+        <f>$O$2*(SUMPRODUCT($J$2:$J$41,B$2:B$41)-SUMPRODUCT($H$2:$H$41,B$2:B$41))/40</f>
+        <v>3.4518968977171663E-6</v>
       </c>
       <c r="R3">
-        <f t="shared" si="4"/>
-        <v>1.0032094418619408E-7</v>
+        <f t="shared" ref="R3:V3" si="5">$O$2*(SUMPRODUCT($J$2:$J$41,C$2:C$41)-SUMPRODUCT($H$2:$H$41,C$2:C$41))/40</f>
+        <v>1.7033791480398007E-5</v>
       </c>
       <c r="S3">
-        <f t="shared" si="4"/>
-        <v>2.3612030763672465E-6</v>
+        <f t="shared" si="5"/>
+        <v>-1.8027887573772717E-5</v>
       </c>
       <c r="T3">
-        <f t="shared" si="4"/>
-        <v>-1.1440645071979461E-5</v>
+        <f t="shared" si="5"/>
+        <v>-7.7469069961892948E-6</v>
       </c>
       <c r="U3">
-        <f t="shared" si="4"/>
-        <v>5.1051692026634069E-6</v>
+        <f t="shared" si="5"/>
+        <v>-3.069224069491903E-5</v>
       </c>
       <c r="V3">
-        <f t="shared" si="4"/>
-        <v>-5.9952839751857391E-6</v>
+        <f t="shared" si="5"/>
+        <v>-2.5949016242629673E-5</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
@@ -1180,55 +1180,55 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <f>SUMPRODUCT(B4:G4,Q$2:V$2)</f>
-        <v>-0.87682471591484645</v>
+        <f t="shared" si="0"/>
+        <v>-3.5980805973351648</v>
       </c>
       <c r="J4" s="8">
         <f>1/(1+EXP(-I4))</f>
-        <v>0.29383620763163537</v>
+        <v>2.6646731310610749E-2</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
-        <v>0.15109455408777422</v>
+        <f t="shared" si="2"/>
+        <v>1.1729508346790308E-2</v>
       </c>
       <c r="L4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N4" s="7">
         <f>1-M42</f>
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q4">
-        <f>Q2-Q3</f>
-        <v>-7.1195647040306289</v>
+        <f t="shared" ref="Q4:V4" si="6">Q2-Q3</f>
+        <v>-4.2479001787431567</v>
       </c>
       <c r="R4">
-        <f>R2-R3</f>
-        <v>0.10075745041226897</v>
+        <f t="shared" si="6"/>
+        <v>0.16338317969158367</v>
       </c>
       <c r="S4">
-        <f>S2-S3</f>
-        <v>1.3569472466284984E-2</v>
+        <f t="shared" si="6"/>
+        <v>-4.5450770896205944E-2</v>
       </c>
       <c r="T4">
-        <f>T2-T3</f>
-        <v>-2.3093235697542187E-4</v>
+        <f t="shared" si="6"/>
+        <v>-0.15520628681780976</v>
       </c>
       <c r="U4">
-        <f>U2-U3</f>
-        <v>-1.0832748065823177</v>
+        <f t="shared" si="6"/>
+        <v>-2.8800007224872095</v>
       </c>
       <c r="V4">
-        <f>V2-V3</f>
-        <v>-0.60651676519636355</v>
+        <f t="shared" si="6"/>
+        <v>-3.2453151586406976</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
@@ -1257,23 +1257,23 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <f>SUMPRODUCT(B5:G5,Q$2:V$2)</f>
-        <v>-3.8450215302317488</v>
+        <f t="shared" si="0"/>
+        <v>-8.5267481632374</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" si="0"/>
-        <v>2.093815887915023E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.9805887128822875E-4</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
-        <v>9.1898757052169214E-3</v>
+        <f t="shared" si="2"/>
+        <v>8.6024394120893773E-5</v>
       </c>
       <c r="L5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P5" s="7"/>
@@ -1304,23 +1304,23 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <f>SUMPRODUCT(B6:G6,Q$2:V$2)</f>
-        <v>-3.9380864363461918</v>
+        <f t="shared" si="0"/>
+        <v>-15.704208989325405</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9113039298933873E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5126854430226412E-7</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
-        <v>8.3810386673548003E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.569509906867392E-8</v>
       </c>
       <c r="L6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1350,23 +1350,23 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f>SUMPRODUCT(B7:G7,Q$2:V$2)</f>
-        <v>-1.1070611422898944</v>
+        <f t="shared" si="0"/>
+        <v>-2.5146829505612978</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.24841918836104601</v>
+        <f t="shared" si="1"/>
+        <v>7.4835239513781474E-2</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
-        <v>0.12402431625870837</v>
+        <f t="shared" si="2"/>
+        <v>3.378091785758696E-2</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1396,23 +1396,23 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <f>SUMPRODUCT(B8:G8,Q$2:V$2)</f>
-        <v>-1.1075458882939895</v>
+        <f t="shared" si="0"/>
+        <v>-2.8251110180109098</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" si="0"/>
-        <v>0.248328693880531</v>
+        <f t="shared" si="1"/>
+        <v>5.5982211670151646E-2</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
-        <v>0.12397202795242418</v>
+        <f t="shared" si="2"/>
+        <v>2.5019822120670922E-2</v>
       </c>
       <c r="L8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1442,23 +1442,23 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <f>SUMPRODUCT(B9:G9,Q$2:V$2)</f>
-        <v>-0.97796596632022115</v>
+        <f t="shared" si="0"/>
+        <v>-3.6666740435912271</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" si="0"/>
-        <v>0.27329556678768047</v>
+        <f t="shared" si="1"/>
+        <v>2.4924247364872299E-2</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
-        <v>0.13864219041390266</v>
+        <f t="shared" si="2"/>
+        <v>1.0961643097925139E-2</v>
       </c>
       <c r="L9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1488,23 +1488,23 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <f>SUMPRODUCT(B10:G10,Q$2:V$2)</f>
-        <v>-2.9955407110049581</v>
+        <f t="shared" si="0"/>
+        <v>-8.4868186505005667</v>
       </c>
       <c r="J10" s="8">
-        <f t="shared" si="0"/>
-        <v>4.7627736015898058E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.0612561419630689E-4</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
-        <v>2.1193261076959617E-2</v>
+        <f t="shared" si="2"/>
+        <v>8.9528444194169552E-5</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1534,23 +1534,23 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <f>SUMPRODUCT(B11:G11,Q$2:V$2)</f>
-        <v>-6.1515618396744927</v>
+        <f t="shared" si="0"/>
+        <v>-11.381996729906632</v>
       </c>
       <c r="J11" s="8">
-        <f t="shared" si="0"/>
-        <v>2.1256243110243443E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.1398735512100222E-5</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
-        <v>9.2412943319865966E-4</v>
+        <f t="shared" si="2"/>
+        <v>4.9504361480098344E-6</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1580,23 +1580,23 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <f>SUMPRODUCT(B12:G12,Q$2:V$2)</f>
-        <v>-1.2513416237238273</v>
+        <f t="shared" si="0"/>
+        <v>-3.99901033771408</v>
       </c>
       <c r="J12" s="8">
-        <f t="shared" si="0"/>
-        <v>0.22246798374033139</v>
+        <f t="shared" si="1"/>
+        <v>1.8003698417403784E-2</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
-        <v>0.10928171908745232</v>
+        <f t="shared" si="2"/>
+        <v>7.8901478599901435E-3</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1626,23 +1626,23 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <f>SUMPRODUCT(B13:G13,Q$2:V$2)</f>
-        <v>-5.1163579189995421</v>
+        <f t="shared" si="0"/>
+        <v>-9.5285041251939404</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" si="0"/>
-        <v>5.9620682793482555E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.274307314751584E-5</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
-        <v>2.5970429440796503E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.1593064366884781E-5</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1672,23 +1672,23 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <f>SUMPRODUCT(B14:G14,Q$2:V$2)</f>
-        <v>-2.9574913130193954</v>
+        <f t="shared" si="0"/>
+        <v>-10.330579417824772</v>
       </c>
       <c r="J14" s="8">
-        <f t="shared" si="0"/>
-        <v>4.9383643095588951E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.261911676993337E-5</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
-        <v>1.3064168747534124</v>
+        <f t="shared" si="2"/>
+        <v>4.4865278025580757</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1718,23 +1718,23 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <f>SUMPRODUCT(B15:G15,Q$2:V$2)</f>
-        <v>-4.9585857480102025</v>
+        <f t="shared" si="0"/>
+        <v>-13.333624418820222</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" si="0"/>
-        <v>6.9738763883506142E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.6191227982370544E-6</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
-        <v>3.0393263372934759E-3</v>
+        <f t="shared" si="2"/>
+        <v>7.0317666608151004E-7</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1764,23 +1764,23 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <f>SUMPRODUCT(B16:G16,Q$2:V$2)</f>
-        <v>-8.1374679740955589</v>
+        <f t="shared" si="0"/>
+        <v>-18.587991175607506</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" si="0"/>
-        <v>2.922911077608041E-4</v>
+        <f t="shared" si="1"/>
+        <v>8.4593695780415214E-9</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
-        <v>1.269589706030248E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.6738575263573902E-9</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1810,23 +1810,23 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f>SUMPRODUCT(B17:G17,Q$2:V$2)</f>
-        <v>-5.0839621897297302</v>
+        <f t="shared" si="0"/>
+        <v>-11.448711862811052</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="0"/>
-        <v>6.1571677316837057E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.0663087724569727E-5</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
-        <v>2.6822901252774277E-3</v>
+        <f t="shared" si="2"/>
+        <v>4.6309448489612545E-6</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1856,23 +1856,23 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <f>SUMPRODUCT(B18:G18,Q$2:V$2)</f>
-        <v>-1.7963460605068702</v>
+        <f t="shared" si="0"/>
+        <v>-4.8075924196763511</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" si="0"/>
-        <v>0.14229643888960181</v>
+        <f t="shared" si="1"/>
+        <v>8.1013323262016882E-3</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
-        <v>6.6662786765784895E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.5326930857029638E-3</v>
       </c>
       <c r="L18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1902,23 +1902,23 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <f>SUMPRODUCT(B19:G19,Q$2:V$2)</f>
-        <v>-2.77580840849209</v>
+        <f t="shared" si="0"/>
+        <v>-5.9116760171753278</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="0"/>
-        <v>5.8645529878856843E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.700333478263203E-3</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
-        <v>2.6246810759953498E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.1743261796013827E-3</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1948,23 +1948,23 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <f>SUMPRODUCT(B20:G20,Q$2:V$2)</f>
-        <v>0.88805411176367999</v>
+        <f t="shared" si="0"/>
+        <v>1.8519900893092878</v>
       </c>
       <c r="J20" s="8">
-        <f t="shared" si="0"/>
-        <v>0.70848844637731601</v>
+        <f t="shared" si="1"/>
+        <v>0.86436059299351542</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
-        <v>0.14966722758376158</v>
+        <f t="shared" si="2"/>
+        <v>6.3305041228391215E-2</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1994,23 +1994,23 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <f>SUMPRODUCT(B21:G21,Q$2:V$2)</f>
-        <v>4.431010047207451E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.29321850397251392</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="0"/>
-        <v>0.51107571301991106</v>
+        <f t="shared" si="1"/>
+        <v>0.57278389277265207</v>
       </c>
       <c r="K21">
-        <f t="shared" si="1"/>
-        <v>0.29151475679090072</v>
+        <f t="shared" si="2"/>
+        <v>0.24200920330200254</v>
       </c>
       <c r="L21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2040,23 +2040,23 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <f>SUMPRODUCT(B22:G22,Q$2:V$2)</f>
-        <v>-1.1816266105800759</v>
+        <f t="shared" si="0"/>
+        <v>-1.3893530189416801</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="0"/>
-        <v>0.2347598533796233</v>
+        <f t="shared" si="1"/>
+        <v>0.19951106377627748</v>
       </c>
       <c r="K22">
-        <f t="shared" si="1"/>
-        <v>0.1162022537540825</v>
+        <f t="shared" si="2"/>
+        <v>9.6644666205882385E-2</v>
       </c>
       <c r="L22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2086,23 +2086,23 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <f>SUMPRODUCT(B23:G23,Q$2:V$2)</f>
-        <v>2.6785862172778492</v>
+        <f t="shared" si="0"/>
+        <v>6.1402389476077319</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="0"/>
-        <v>0.93575117803533625</v>
+        <f t="shared" si="1"/>
+        <v>0.99785022273302093</v>
       </c>
       <c r="K23">
-        <f t="shared" si="1"/>
-        <v>2.8839617471436329E-2</v>
+        <f t="shared" si="2"/>
+        <v>9.3464140013195919E-4</v>
       </c>
       <c r="L23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2132,24 +2132,24 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <f>SUMPRODUCT(B24:G24,Q$2:V$2)</f>
-        <v>-1.3778899873812112</v>
+        <f t="shared" si="0"/>
+        <v>0.31602414075195218</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="0"/>
-        <v>0.20134809082089497</v>
+        <f t="shared" si="1"/>
+        <v>0.57835500037506815</v>
       </c>
       <c r="K24">
-        <f t="shared" si="1"/>
-        <v>0.6960524840097716</v>
+        <f t="shared" si="2"/>
+        <v>0.23780550521743807</v>
       </c>
       <c r="L24">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="M24">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
@@ -2178,23 +2178,23 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <f>SUMPRODUCT(B25:G25,Q$2:V$2)</f>
-        <v>0.61035973294637658</v>
+        <f t="shared" si="0"/>
+        <v>3.8301800417055993</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="0"/>
-        <v>0.64802285766116152</v>
+        <f t="shared" si="1"/>
+        <v>0.97875542126327664</v>
       </c>
       <c r="K25">
-        <f t="shared" si="1"/>
-        <v>0.18840967502287392</v>
+        <f t="shared" si="2"/>
+        <v>9.3258193981580681E-3</v>
       </c>
       <c r="L25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2224,23 +2224,23 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <f>SUMPRODUCT(B26:G26,Q$2:V$2)</f>
-        <v>-1.2046069987061299</v>
+        <f t="shared" si="0"/>
+        <v>-2.2928526818596611</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="0"/>
-        <v>0.23065667110790425</v>
+        <f t="shared" si="1"/>
+        <v>9.1716631207625382E-2</v>
       </c>
       <c r="K26">
-        <f t="shared" si="1"/>
-        <v>0.11387980770414799</v>
+        <f t="shared" si="2"/>
+        <v>4.1778637928568167E-2</v>
       </c>
       <c r="L26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2270,23 +2270,23 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <f>SUMPRODUCT(B27:G27,Q$2:V$2)</f>
-        <v>1.6399890745742349</v>
+        <f t="shared" si="0"/>
+        <v>2.113749870747756</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" si="0"/>
-        <v>0.83753345078932395</v>
+        <f t="shared" si="1"/>
+        <v>0.8922324279516749</v>
       </c>
       <c r="K27">
-        <f t="shared" si="1"/>
-        <v>7.6997838376963876E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.9521996489445663E-2</v>
       </c>
       <c r="L27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2316,24 +2316,24 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <f>SUMPRODUCT(B28:G28,Q$2:V$2)</f>
-        <v>-0.12723333901081268</v>
+        <f t="shared" si="0"/>
+        <v>0.35551772885052912</v>
       </c>
       <c r="J28" s="8">
-        <f t="shared" si="0"/>
-        <v>0.46823450619490375</v>
+        <f t="shared" si="1"/>
+        <v>0.5879549712139176</v>
       </c>
       <c r="K28">
-        <f t="shared" si="1"/>
-        <v>0.2742798474035541</v>
+        <f t="shared" si="2"/>
+        <v>0.38505532113981417</v>
       </c>
       <c r="L28">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="M28">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
@@ -2362,24 +2362,24 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <f>SUMPRODUCT(B29:G29,Q$2:V$2)</f>
-        <v>-1.5419638564237841</v>
+        <f t="shared" si="0"/>
+        <v>8.5579557533279171E-2</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17624996917710814</v>
+        <f t="shared" si="1"/>
+        <v>0.52138184117382647</v>
       </c>
       <c r="K29">
-        <f t="shared" si="1"/>
-        <v>8.4204556147600959E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.32001082822905874</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="M29">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
@@ -2408,23 +2408,23 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <f>SUMPRODUCT(B30:G30,Q$2:V$2)</f>
-        <v>-1.7498209362816233</v>
+        <f t="shared" si="0"/>
+        <v>-3.6215301106493829</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" si="0"/>
-        <v>0.14806978462313866</v>
+        <f t="shared" si="1"/>
+        <v>2.6045232854165091E-2</v>
       </c>
       <c r="K30">
-        <f t="shared" si="1"/>
-        <v>6.9595978376488815E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.1461212356624907E-2</v>
       </c>
       <c r="L30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2454,23 +2454,23 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <f>SUMPRODUCT(B31:G31,Q$2:V$2)</f>
-        <v>-4.6673660109517909</v>
+        <f t="shared" si="0"/>
+        <v>-11.060283377558825</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" si="0"/>
-        <v>9.3095071905651035E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.5724365561409211E-5</v>
       </c>
       <c r="K31">
-        <f t="shared" si="1"/>
-        <v>4.0620047072701263E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.8290588861994455E-6</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2500,23 +2500,23 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <f>SUMPRODUCT(B32:G32,Q$2:V$2)</f>
-        <v>-5.5326791105350281</v>
+        <f t="shared" si="0"/>
+        <v>-8.9581945896575021</v>
       </c>
       <c r="J32" s="8">
-        <f t="shared" si="0"/>
-        <v>3.9397946095761647E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.2866180540077807E-4</v>
       </c>
       <c r="K32">
-        <f t="shared" si="1"/>
-        <v>1.7144104933479404E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.5880707050710976E-5</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2546,23 +2546,23 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <f>SUMPRODUCT(B33:G33,Q$2:V$2)</f>
-        <v>-5.48372503634792</v>
+        <f t="shared" si="0"/>
+        <v>-21.292233214111263</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" si="0"/>
-        <v>4.1366447743586936E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.6610971447741727E-10</v>
       </c>
       <c r="K33">
-        <f t="shared" si="1"/>
-        <v>1.8002480649249068E-3</v>
+        <f t="shared" si="2"/>
+        <v>2.4585832529887157E-10</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2592,23 +2592,23 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <f>SUMPRODUCT(B34:G34,Q$2:V$2)</f>
-        <v>-5.4038263075674031</v>
+        <f t="shared" si="0"/>
+        <v>-10.265399716412238</v>
       </c>
       <c r="J34" s="8">
-        <f t="shared" si="0"/>
-        <v>4.479178822223112E-3</v>
+        <f t="shared" si="1"/>
+        <v>3.481596427003561E-5</v>
       </c>
       <c r="K34">
-        <f t="shared" si="1"/>
-        <v>1.9496523336555121E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.5120644386044574E-5</v>
       </c>
       <c r="L34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2638,23 +2638,23 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <f>SUMPRODUCT(B35:G35,Q$2:V$2)</f>
-        <v>-3.6506604736558117</v>
+        <f t="shared" si="0"/>
+        <v>-8.7721268431808426</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" si="0"/>
-        <v>2.5316400611537421E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.549695635139182E-4</v>
       </c>
       <c r="K35">
-        <f t="shared" si="1"/>
-        <v>1.11363415736184E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.73076417496899E-5</v>
       </c>
       <c r="L35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2684,23 +2684,23 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <f>SUMPRODUCT(B36:G36,Q$2:V$2)</f>
-        <v>-1.6040030776159724</v>
+        <f t="shared" si="0"/>
+        <v>-2.8012075640406149</v>
       </c>
       <c r="J36" s="8">
-        <f t="shared" si="0"/>
-        <v>0.16742287292652319</v>
+        <f t="shared" si="1"/>
+        <v>5.7258956286349035E-2</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
-        <v>7.9575524415158666E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.5607584813846944E-2</v>
       </c>
       <c r="L36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2730,23 +2730,23 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <f>SUMPRODUCT(B37:G37,Q$2:V$2)</f>
-        <v>0.85271375497850177</v>
+        <f t="shared" si="0"/>
+        <v>1.7700293937991165</v>
       </c>
       <c r="J37" s="8">
-        <f t="shared" si="0"/>
-        <v>0.70113610448273933</v>
+        <f t="shared" si="1"/>
+        <v>0.85446132643073647</v>
       </c>
       <c r="K37">
-        <f t="shared" si="1"/>
-        <v>0.52452654707080093</v>
+        <f t="shared" si="2"/>
+        <v>0.83702158753037414</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2776,23 +2776,23 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <f>SUMPRODUCT(B38:G38,Q$2:V$2)</f>
-        <v>-3.5685053477389821</v>
+        <f t="shared" si="0"/>
+        <v>-1.7400296098209687</v>
       </c>
       <c r="J38" s="8">
-        <f t="shared" si="0"/>
-        <v>2.7424648972319787E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.14930917357242096</v>
       </c>
       <c r="K38">
-        <f t="shared" si="1"/>
-        <v>1.2076741397817463E-2</v>
+        <f t="shared" si="2"/>
+        <v>7.0228250459895211E-2</v>
       </c>
       <c r="L38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2822,24 +2822,24 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <f>SUMPRODUCT(B39:G39,Q$2:V$2)</f>
-        <v>-0.41175710006330629</v>
+        <f t="shared" si="0"/>
+        <v>1.6207905707595152</v>
       </c>
       <c r="J39" s="8">
-        <f t="shared" si="0"/>
-        <v>0.3984908764488318</v>
+        <f t="shared" si="1"/>
+        <v>0.83490413032288169</v>
       </c>
       <c r="K39">
-        <f t="shared" si="1"/>
-        <v>0.22075778099599364</v>
+        <f t="shared" si="2"/>
+        <v>0.78226379166073101</v>
       </c>
       <c r="L39">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="M39">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
@@ -2868,23 +2868,23 @@
         <v>1</v>
       </c>
       <c r="I40">
-        <f>SUMPRODUCT(B40:G40,Q$2:V$2)</f>
-        <v>1.8072137926434244</v>
+        <f t="shared" si="0"/>
+        <v>4.3619768923889071</v>
       </c>
       <c r="J40" s="8">
-        <f t="shared" si="0"/>
-        <v>0.85902479862906689</v>
+        <f t="shared" si="1"/>
+        <v>0.98740744366826849</v>
       </c>
       <c r="K40">
-        <f t="shared" si="1"/>
-        <v>6.5994298622417444E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.5036031324194948E-3</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2914,34 +2914,34 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <f>SUMPRODUCT(B41:G41,Q$2:V$2)</f>
-        <v>0.83841480230299825</v>
+        <f t="shared" si="0"/>
+        <v>1.3498560914084776</v>
       </c>
       <c r="J41" s="8">
-        <f t="shared" si="0"/>
-        <v>0.69813125004781573</v>
+        <f t="shared" si="1"/>
+        <v>0.79410609990965897</v>
       </c>
       <c r="K41">
-        <f t="shared" si="1"/>
-        <v>0.15606292148426881</v>
+        <f t="shared" si="2"/>
+        <v>0.10012146794205413</v>
       </c>
       <c r="L41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="K42">
         <f>AVERAGE(K2:K41)</f>
-        <v>0.14648265673336858</v>
+        <v>0.22579849617397682</v>
       </c>
       <c r="M42">
         <f>SUM(M2:M41)/40</f>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -2957,11 +2957,14 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="14" max="15" width="13.52734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
@@ -3028,15 +3031,15 @@
       </c>
       <c r="F2">
         <f>SUMPRODUCT( B2:D2,N$2:P$2)</f>
-        <v>-4.2066845930760088</v>
+        <v>-4.5884077113743711</v>
       </c>
       <c r="G2" s="8">
         <f t="shared" ref="G2:G65" si="0">1/(1+EXP(-F2))</f>
-        <v>1.46770472966206E-2</v>
+        <v>1.0066669194938345E-2</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H41" si="1">-(E2*LOG(G2)+(1-E2)*LOG(1-G2))</f>
-        <v>6.4214003764974754E-3</v>
+        <v>4.3940529160255409E-3</v>
       </c>
       <c r="I2">
         <f>IF(G2&gt;0.5,1,0)</f>
@@ -3048,7 +3051,7 @@
       </c>
       <c r="K2" s="7">
         <f>AVERAGE(H2:H41)</f>
-        <v>0.10168119576180626</v>
+        <v>0.10209992117145854</v>
       </c>
       <c r="L2" s="1">
         <v>1E-3</v>
@@ -3057,13 +3060,13 @@
         <v>19</v>
       </c>
       <c r="N2">
-        <v>4.1588212378670022</v>
+        <v>4.197929442560338</v>
       </c>
       <c r="O2">
-        <v>0.44213167225404104</v>
+        <v>0.45330090399188511</v>
       </c>
       <c r="P2">
-        <v>-0.59472574862900163</v>
+        <v>-0.62465762757599363</v>
       </c>
       <c r="R2">
         <v>15.512969654150501</v>
@@ -3093,15 +3096,15 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="2">SUMPRODUCT( B3:D3,N$2:P$2)</f>
-        <v>0.7688340568539922</v>
+        <v>0.65279548918272656</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" si="0"/>
-        <v>0.68326862286881218</v>
+        <v>0.65764014298203732</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>0.1654085225347639</v>
+        <v>0.18201168490917857</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="3">IF(G3&gt;0.5,1,0)</f>
@@ -3118,16 +3121,16 @@
         <v>18</v>
       </c>
       <c r="N3">
-        <f>$L$2*(SUMPRODUCT($G$2:$G$41,B$2:B$41)-SUMPRODUCT($E$2:$E$41,B$2:B$41))/40</f>
-        <v>-3.7097069291089197E-5</v>
+        <f>$L$2*(SUMPRODUCT($G$2:$G$101,B$2:B$101)-SUMPRODUCT($E$2:$E$101,B$2:B$101))/100</f>
+        <v>-3.2888670414572016E-5</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:P3" si="5">$L$2*(SUMPRODUCT($G$2:$G$41,C$2:C$41)-SUMPRODUCT($E$2:$E$41,C$2:C$41))/40</f>
-        <v>3.4813793561687323E-5</v>
+        <f>$L$2*(SUMPRODUCT($G$2:$G$101,C$2:C$101)-SUMPRODUCT($E$2:$E$101,C$2:C$101))/100</f>
+        <v>-7.2892839794370405E-6</v>
       </c>
       <c r="P3">
-        <f t="shared" si="5"/>
-        <v>4.3785172291396887E-6</v>
+        <f>$L$2*(SUMPRODUCT($G$2:$G$101,D$2:D$101)-SUMPRODUCT($E$2:$E$101,D$2:D$101))/100</f>
+        <v>4.7531487876608478E-6</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
@@ -3148,15 +3151,15 @@
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>-6.241686884114328E-2</v>
+        <v>-0.22742286230442943</v>
       </c>
       <c r="G4" s="8">
         <f>1/(1+EXP(-F4))</f>
-        <v>0.48440084681115969</v>
+        <v>0.44338807719913964</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0.28768780459581822</v>
+        <v>0.25444749517918597</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
@@ -3168,22 +3171,22 @@
       </c>
       <c r="K4" s="7">
         <f>1-SUM(J2:J101)/100</f>
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="N4">
         <f>N2-N3</f>
-        <v>4.1588583349362933</v>
+        <v>4.1979623312307526</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:P4" si="6">O2-O3</f>
-        <v>0.44209685846047936</v>
+        <f t="shared" ref="O4:P4" si="5">O2-O3</f>
+        <v>0.45330819327586452</v>
       </c>
       <c r="P4">
-        <f t="shared" si="6"/>
-        <v>-0.59473012714623075</v>
+        <f t="shared" si="5"/>
+        <v>-0.62466238072478131</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
@@ -3204,15 +3207,15 @@
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>-0.67982671896144664</v>
+        <v>-0.86958671253214437</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>0.33629997822532237</v>
+        <v>0.29534030580355664</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.17802816810961883</v>
+        <v>0.15202056898617988</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
@@ -3242,15 +3245,15 @@
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>-2.2284976256493163</v>
+        <v>-2.5155480352618476</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
-        <v>9.7220422528734737E-2</v>
+        <v>7.4775367463059392E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>4.4418274020345809E-2</v>
+        <v>3.3752813393352614E-2</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
@@ -3279,23 +3282,23 @@
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>0.13551185881246486</v>
+        <v>-3.2375980967331408E-2</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>0.53382621666327257</v>
+        <v>0.49190671169734479</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0.2726001014503347</v>
+        <v>0.3081172517784701</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
@@ -3316,15 +3319,15 @@
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>-3.1237723161811743</v>
+        <v>-3.458585432114301</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>4.213725148198387E-2</v>
+        <v>3.0513852303003214E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>1.8696716215419597E-2</v>
+        <v>1.3458391868137871E-2</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
@@ -3353,15 +3356,15 @@
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>-1.0127547399431482</v>
+        <v>-1.2066608967222696</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>0.26644108989564597</v>
+        <v>0.23029239998196083</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0.57439879850002784</v>
+        <v>0.63772039421275317</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
@@ -3390,15 +3393,15 @@
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>-1.2683145903530741</v>
+        <v>-1.5086586810011458</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>0.21954590293776283</v>
+        <v>0.18113766163423109</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>0.1076526351753227</v>
+        <v>8.678910277342626E-2</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
@@ -3430,15 +3433,15 @@
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>-2.0546008750142981</v>
+        <v>-2.3279120704669483</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>0.11358831332326805</v>
+        <v>8.8837526561801453E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>5.2364526729185332E-2</v>
+        <v>4.0404175138703029E-2</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
@@ -3470,15 +3473,15 @@
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>0.41912378338428979</v>
+        <v>0.26059207177138255</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>0.60327355992444376</v>
+        <v>0.56478183058477338</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>0.21948570838249043</v>
+        <v>0.24811928328008126</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
@@ -3507,15 +3510,15 @@
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>-3.0813555905721932</v>
+        <v>-3.4215678578246669</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>4.3882903438809476E-2</v>
+        <v>3.1628173014341426E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>1.9488916012440512E-2</v>
+        <v>1.3957854053361796E-2</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
@@ -3544,15 +3547,15 @@
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>2.7956191970642763</v>
+        <v>2.7530766396040169</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>0.94243863417206986</v>
+        <v>0.94008687188580631</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>2.5746918796544442E-2</v>
+        <v>2.6832012105201225E-2</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
@@ -3581,15 +3584,15 @@
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>-2.0397872760204496</v>
+        <v>-2.2929000293144806</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>0.11508839473191844</v>
+        <v>9.1712687018789554E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>5.3100109258799696E-2</v>
+        <v>4.1776752024029251E-2</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
@@ -3618,15 +3621,15 @@
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0.48922666653245273</v>
+        <v>0.34992785564584139</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>0.61992423782717243</v>
+        <v>0.58660008399006336</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>0.20766138325027891</v>
+        <v>0.23165787917268718</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
@@ -3655,15 +3658,15 @@
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>3.6254070272728542</v>
+        <v>3.6273440079306383</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>0.97405293192048026</v>
+        <v>0.97410184189062587</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>1.141744207789115E-2</v>
+        <v>1.1395635463309697E-2</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
@@ -3692,15 +3695,15 @@
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>0.48947190163198195</v>
+        <v>0.34417413373178274</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>0.61998201797472208</v>
+        <v>0.58520411225439106</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>0.20762090664304331</v>
+        <v>0.23269263073005675</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
@@ -3729,15 +3732,15 @@
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>2.5423043591666659</v>
+        <v>2.5004590847916539</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>0.92705481042993731</v>
+        <v>0.92417399726282956</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>3.2894588224889686E-2</v>
+        <v>3.4246255038407579E-2</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
@@ -3766,15 +3769,15 @@
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>3.8075874850084404</v>
+        <v>3.8312012276677492</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>0.97828053231405698</v>
+        <v>0.97877664465689751</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>9.5365888056734936E-3</v>
+        <v>9.3164022316169579E-3</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
@@ -3803,15 +3806,15 @@
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>1.1850564387851859</v>
+        <v>1.0632553968573712</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>0.76585574661536049</v>
+        <v>0.74331216421010737</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>0.11585302455626589</v>
+        <v>0.12882875996430537</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
@@ -3840,15 +3843,15 @@
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>3.1152520592195292</v>
+        <v>3.0798360205116908</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>0.95751751171500243</v>
+        <v>0.95605329545663531</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>1.8853274621325081E-2</v>
+        <v>1.9517897182501083E-2</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
@@ -3877,15 +3880,15 @@
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
-        <v>3.7416754249839932</v>
+        <v>3.7785572804712877</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>0.97683500430871983</v>
+        <v>0.97765506588201256</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>1.0178786096613697E-2</v>
+        <v>9.8143450156041017E-3</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
@@ -3914,15 +3917,15 @@
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
-        <v>-3.101306928971876</v>
+        <v>-3.4212033330362615</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>4.305337758168435E-2</v>
+        <v>3.1639339524575844E-2</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>1.9112286084906123E-2</v>
+        <v>1.3962862028194046E-2</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
@@ -3951,15 +3954,15 @@
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
-        <v>5.0038690664768701</v>
+        <v>5.0893512018866556</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>0.99333282181691718</v>
+        <v>0.99387572141048042</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>2.9052142831529795E-3</v>
+        <v>2.6679182989126841E-3</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
@@ -3988,15 +3991,15 @@
       </c>
       <c r="F26">
         <f t="shared" si="2"/>
-        <v>1.630132258105752</v>
+        <v>1.5655195302183988</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="0"/>
-        <v>0.83618775600556527</v>
+        <v>0.82714394351821063</v>
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>7.7696195955838931E-2</v>
+        <v>8.2418905881711788E-2</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
@@ -4025,15 +4028,15 @@
       </c>
       <c r="F27">
         <f t="shared" si="2"/>
-        <v>-1.0102914548668043</v>
+        <v>-1.2448367553647062</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="0"/>
-        <v>0.26692281644833321</v>
+        <v>0.22359520071973257</v>
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>0.13485029735629539</v>
+        <v>0.10991178872095549</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
@@ -4062,15 +4065,15 @@
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
-        <v>-1.5768950137030262</v>
+        <v>-1.8183250187811533</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="0"/>
-        <v>0.17123567339737378</v>
+        <v>0.13963497883117595</v>
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>8.1568951002632228E-2</v>
+        <v>6.5317254516748927E-2</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
@@ -4099,15 +4102,15 @@
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
-        <v>3.5108952478079676</v>
+        <v>3.5577574835525452</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="0"/>
-        <v>0.970996187295872</v>
+        <v>0.97228721750895042</v>
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>1.2782475385110285E-2</v>
+        <v>1.2205423804662687E-2</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
@@ -4136,15 +4139,15 @@
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
-        <v>2.2027426282657787</v>
+        <v>2.1399016080389082</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="0"/>
-        <v>0.90049552958330958</v>
+        <v>0.89472134280060045</v>
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>4.5518438849022638E-2</v>
+        <v>4.8312202815439118E-2</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
@@ -4173,15 +4176,15 @@
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
-        <v>-0.93565379781056013</v>
+        <v>-1.1686447908551818</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="0"/>
-        <v>0.2817790905788638</v>
+        <v>0.23710003204708238</v>
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>0.14374195549784105</v>
+        <v>0.11753240334800441</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
@@ -4210,15 +4213,15 @@
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
-        <v>1.615484501001609</v>
+        <v>1.5308709489453558</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="0"/>
-        <v>0.83417144550767919</v>
+        <v>0.82213370870204883</v>
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>7.8744680554316104E-2</v>
+        <v>8.5057544711568275E-2</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
@@ -4247,15 +4250,15 @@
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
-        <v>-0.52818691835519527</v>
+        <v>-0.73114279090842249</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="0"/>
-        <v>0.37093985972368199</v>
+        <v>0.32494399993311418</v>
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>0.43069649660416437</v>
+        <v>0.48819147783830807</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
@@ -4284,15 +4287,15 @@
       </c>
       <c r="F34">
         <f t="shared" si="2"/>
-        <v>-2.1909293862946448</v>
+        <v>-2.4849718597424157</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="0"/>
-        <v>0.10056799557422474</v>
+        <v>7.6918446758198172E-2</v>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>4.603166302311576E-2</v>
+        <v>3.4759927838363514E-2</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
@@ -4321,15 +4324,15 @@
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
-        <v>4.9938553258225475</v>
+        <v>5.089927233744211</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="0"/>
-        <v>0.9932661748609628</v>
+        <v>0.99387922658766936</v>
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>2.9343539386807388E-3</v>
+        <v>2.6663866421933421E-3</v>
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
@@ -4358,15 +4361,15 @@
       </c>
       <c r="F36">
         <f t="shared" si="2"/>
-        <v>1.7428844723386065</v>
+        <v>1.6471396197108321</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="0"/>
-        <v>0.85105307656449936</v>
+        <v>0.83850408701629209</v>
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
-        <v>7.0043353969144864E-2</v>
+        <v>7.6494816225101972E-2</v>
       </c>
       <c r="I36">
         <f t="shared" si="3"/>
@@ -4395,15 +4398,15 @@
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
-        <v>-1.3953474478894936</v>
+        <v>-1.6388245227848603</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="0"/>
-        <v>0.19855543930300476</v>
+        <v>0.16262507342873456</v>
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
-        <v>9.6126514253204579E-2</v>
+        <v>7.7080047283775724E-2</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
@@ -4432,15 +4435,15 @@
       </c>
       <c r="F38">
         <f t="shared" si="2"/>
-        <v>-1.1833935628332259</v>
+        <v>-1.4183682980051104</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="0"/>
-        <v>0.23444257331499016</v>
+        <v>0.1949175104379936</v>
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
-        <v>0.11602222605392919</v>
+        <v>9.4159619102677172E-2</v>
       </c>
       <c r="I38">
         <f t="shared" si="3"/>
@@ -4469,15 +4472,15 @@
       </c>
       <c r="F39">
         <f t="shared" si="2"/>
-        <v>-2.351882981542575</v>
+        <v>-2.6195095923724829</v>
       </c>
       <c r="G39" s="8">
         <f t="shared" si="0"/>
-        <v>8.6916219371627523E-2</v>
+        <v>6.7893321868612549E-2</v>
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>3.9489371649430664E-2</v>
+        <v>3.0534380486664056E-2</v>
       </c>
       <c r="I39">
         <f t="shared" si="3"/>
@@ -4506,15 +4509,15 @@
       </c>
       <c r="F40">
         <f t="shared" si="2"/>
-        <v>-3.7429708412990674</v>
+        <v>-4.0846176873572242</v>
       </c>
       <c r="G40" s="8">
         <f t="shared" si="0"/>
-        <v>2.3135700620030297E-2</v>
+        <v>1.655102556398317E-2</v>
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>1.0165761893996953E-2</v>
+        <v>7.2481682263375487E-3</v>
       </c>
       <c r="I40">
         <f t="shared" si="3"/>
@@ -4543,15 +4546,15 @@
       </c>
       <c r="F41">
         <f t="shared" si="2"/>
-        <v>-3.0911566143105258</v>
+        <v>-3.4037958453758126</v>
       </c>
       <c r="G41" s="8">
         <f t="shared" si="0"/>
-        <v>4.3473513402535274E-2</v>
+        <v>3.2177045539363985E-2</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>1.9302999683877407E-2</v>
+        <v>1.4204081672147977E-2</v>
       </c>
       <c r="I41">
         <f t="shared" si="3"/>
@@ -4580,15 +4583,15 @@
       </c>
       <c r="F42">
         <f t="shared" si="2"/>
-        <v>2.0007818833085129</v>
+        <v>1.9362177328918362</v>
       </c>
       <c r="G42" s="8">
         <f t="shared" si="0"/>
-        <v>0.88087914627070796</v>
+        <v>0.87393603315792201</v>
       </c>
       <c r="H42">
         <f>AVERAGE(H2:H41)</f>
-        <v>0.10168119576180626</v>
+        <v>0.10209992117145854</v>
       </c>
       <c r="I42">
         <f t="shared" si="3"/>
@@ -4617,15 +4620,15 @@
       </c>
       <c r="F43">
         <f t="shared" si="2"/>
-        <v>0.98872771571586071</v>
+        <v>0.85673797903685367</v>
       </c>
       <c r="G43" s="8">
         <f t="shared" si="0"/>
-        <v>0.72883654914857721</v>
+        <v>0.7019786744378862</v>
       </c>
       <c r="H43">
-        <f t="shared" ref="H43:H101" si="7">AVERAGE(H3:H42)</f>
-        <v>0.10406269064643899</v>
+        <f t="shared" ref="H43:H101" si="6">AVERAGE(H3:H42)</f>
+        <v>0.10454256787784437</v>
       </c>
       <c r="I43">
         <f t="shared" si="3"/>
@@ -4654,15 +4657,15 @@
       </c>
       <c r="F44">
         <f t="shared" si="2"/>
-        <v>-2.252920218651504</v>
+        <v>-2.5296498929231324</v>
       </c>
       <c r="G44" s="8">
         <f t="shared" si="0"/>
-        <v>9.5097870320973013E-2</v>
+        <v>7.380557576071857E-2</v>
       </c>
       <c r="H44">
-        <f t="shared" si="7"/>
-        <v>0.10252904484923087</v>
+        <f t="shared" si="6"/>
+        <v>0.10260583995206105</v>
       </c>
       <c r="I44">
         <f t="shared" si="3"/>
@@ -4691,15 +4694,15 @@
       </c>
       <c r="F45">
         <f t="shared" si="2"/>
-        <v>4.3420061740591516</v>
+        <v>4.3775656129102982</v>
       </c>
       <c r="G45" s="8">
         <f t="shared" si="0"/>
-        <v>0.98715669566251507</v>
+        <v>0.98759980807607572</v>
       </c>
       <c r="H45">
-        <f t="shared" si="7"/>
-        <v>9.790007585556619E-2</v>
+        <f t="shared" si="6"/>
+        <v>9.8809798571382917E-2</v>
       </c>
       <c r="I45">
         <f t="shared" si="3"/>
@@ -4728,15 +4731,15 @@
       </c>
       <c r="F46">
         <f t="shared" si="2"/>
-        <v>2.9336294948164356</v>
+        <v>2.9018927327617505</v>
       </c>
       <c r="G46" s="8">
         <f t="shared" si="0"/>
-        <v>0.9494840447727827</v>
+        <v>0.94793992218600698</v>
       </c>
       <c r="H46">
-        <f t="shared" si="7"/>
-        <v>9.5896873549214875E-2</v>
+        <f t="shared" si="6"/>
+        <v>9.7479529311012975E-2</v>
       </c>
       <c r="I46">
         <f t="shared" si="3"/>
@@ -4765,15 +4768,15 @@
       </c>
       <c r="F47">
         <f t="shared" si="2"/>
-        <v>-2.6621990608056905</v>
+        <v>-2.9526677057365966</v>
       </c>
       <c r="G47" s="8">
         <f t="shared" si="0"/>
-        <v>6.5241096086997546E-2</v>
+        <v>4.9610579680281562E-2</v>
       </c>
       <c r="H47">
-        <f t="shared" si="7"/>
-        <v>9.718383853743659E-2</v>
+        <f t="shared" si="6"/>
+        <v>9.9072697208954494E-2</v>
       </c>
       <c r="I47">
         <f t="shared" si="3"/>
@@ -4802,15 +4805,15 @@
       </c>
       <c r="F48">
         <f t="shared" si="2"/>
-        <v>5.1448458135716653</v>
+        <v>5.2411553136561739</v>
       </c>
       <c r="G48" s="8">
         <f t="shared" si="0"/>
-        <v>0.99420441154254369</v>
+        <v>0.99473374337094855</v>
       </c>
       <c r="H48">
-        <f t="shared" si="7"/>
-        <v>9.2798431964614139E-2</v>
+        <f t="shared" si="6"/>
+        <v>9.38465833447166E-2</v>
       </c>
       <c r="I48">
         <f t="shared" si="3"/>
@@ -4839,15 +4842,15 @@
       </c>
       <c r="F49">
         <f t="shared" si="2"/>
-        <v>0.73834199247119336</v>
+        <v>0.60275831305457528</v>
       </c>
       <c r="G49" s="8">
         <f t="shared" si="0"/>
-        <v>0.67663318929677485</v>
+        <v>0.64628711094728797</v>
       </c>
       <c r="H49">
-        <f t="shared" si="7"/>
-        <v>9.4650974858343992E-2</v>
+        <f t="shared" si="6"/>
+        <v>9.5856288131631079E-2</v>
       </c>
       <c r="I49">
         <f t="shared" si="3"/>
@@ -4876,15 +4879,15 @@
       </c>
       <c r="F50">
         <f t="shared" si="2"/>
-        <v>-3.1378301756142211</v>
+        <v>-3.4553160672713847</v>
       </c>
       <c r="G50" s="8">
         <f t="shared" si="0"/>
-        <v>4.157349030016412E-2</v>
+        <v>3.0610717723626384E-2</v>
       </c>
       <c r="H50">
-        <f t="shared" si="7"/>
-        <v>8.2657279267301903E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.2309685479603018E-2</v>
       </c>
       <c r="I50">
         <f t="shared" si="3"/>
@@ -4913,15 +4916,15 @@
       </c>
       <c r="F51">
         <f t="shared" si="2"/>
-        <v>-2.1612600432517564</v>
+        <v>-2.4456972445663503</v>
       </c>
       <c r="G51" s="8">
         <f t="shared" si="0"/>
-        <v>0.10328369272642077</v>
+        <v>7.9753771298810824E-2</v>
       </c>
       <c r="H51">
-        <f t="shared" si="7"/>
-        <v>8.2032395369601385E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.2197700047257419E-2</v>
       </c>
       <c r="I51">
         <f t="shared" si="3"/>
@@ -4950,15 +4953,15 @@
       </c>
       <c r="F52">
         <f t="shared" si="2"/>
-        <v>-0.94628141977823255</v>
+        <v>-1.166157519620894</v>
       </c>
       <c r="G52" s="8">
         <f t="shared" si="0"/>
-        <v>0.27963327303845364</v>
+        <v>0.23755023279491486</v>
       </c>
       <c r="H52">
-        <f t="shared" si="7"/>
-        <v>8.2774092085611789E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.3242538169971278E-2</v>
       </c>
       <c r="I52">
         <f t="shared" si="3"/>
@@ -4987,15 +4990,15 @@
       </c>
       <c r="F53">
         <f t="shared" si="2"/>
-        <v>-2.1395754368539484</v>
+        <v>-2.4135161590697845</v>
       </c>
       <c r="G53" s="8">
         <f t="shared" si="0"/>
-        <v>0.10530938487005337</v>
+        <v>8.2147811503339788E-2</v>
       </c>
       <c r="H53">
-        <f t="shared" si="7"/>
-        <v>7.9356301678189842E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.9120619542218523E-2</v>
       </c>
       <c r="I53">
         <f t="shared" si="3"/>
@@ -5024,15 +5027,15 @@
       </c>
       <c r="F54">
         <f t="shared" si="2"/>
-        <v>-0.80960465682714577</v>
+        <v>-1.0161427817530253</v>
       </c>
       <c r="G54" s="8">
         <f t="shared" si="0"/>
-        <v>0.3079747473296629</v>
+        <v>0.26577942054274095</v>
       </c>
       <c r="H54">
-        <f t="shared" si="7"/>
-        <v>8.0852986319833564E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.0749688679439949E-2</v>
       </c>
       <c r="I54">
         <f t="shared" si="3"/>
@@ -5061,15 +5064,15 @@
       </c>
       <c r="F55">
         <f t="shared" si="2"/>
-        <v>-3.6422798353306183</v>
+        <v>-4.004933777276551</v>
       </c>
       <c r="G55" s="8">
         <f t="shared" si="0"/>
-        <v>2.5524021621527525E-2</v>
+        <v>1.7899273028840097E-2</v>
       </c>
       <c r="H55">
-        <f t="shared" si="7"/>
-        <v>8.2230638007915788E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.2097630593795906E-2</v>
       </c>
       <c r="I55">
         <f t="shared" si="3"/>
@@ -5098,15 +5101,15 @@
       </c>
       <c r="F56">
         <f t="shared" si="2"/>
-        <v>1.8350352097024243</v>
+        <v>1.7404850751974172</v>
       </c>
       <c r="G56" s="8">
         <f t="shared" si="0"/>
-        <v>0.86236047166353091</v>
+        <v>0.85074866855246656</v>
       </c>
       <c r="H56">
-        <f t="shared" si="7"/>
-        <v>8.2958901226643705E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.3105652558040088E-2</v>
       </c>
       <c r="I56">
         <f t="shared" si="3"/>
@@ -5135,23 +5138,23 @@
       </c>
       <c r="F57">
         <f t="shared" si="2"/>
-        <v>0.13743947698990855</v>
+        <v>-2.6948575269338804E-2</v>
       </c>
       <c r="G57" s="8">
         <f t="shared" si="0"/>
-        <v>0.53430588417720282</v>
+        <v>0.493263263876978</v>
       </c>
       <c r="H57">
-        <f t="shared" si="7"/>
-        <v>7.9841339176052822E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.9391846892673909E-2</v>
       </c>
       <c r="I57">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
@@ -5172,15 +5175,15 @@
       </c>
       <c r="F58">
         <f t="shared" si="2"/>
-        <v>-2.3672398844868612</v>
+        <v>-2.6527684485014005</v>
       </c>
       <c r="G58" s="8">
         <f t="shared" si="0"/>
-        <v>8.570517435391431E-2</v>
+        <v>6.5818582545615914E-2</v>
       </c>
       <c r="H58">
-        <f t="shared" si="7"/>
-        <v>8.1551936603506847E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.1091752178408014E-2</v>
       </c>
       <c r="I58">
         <f t="shared" si="3"/>
@@ -5209,15 +5212,15 @@
       </c>
       <c r="F59">
         <f t="shared" si="2"/>
-        <v>0.3579596450058169</v>
+        <v>0.18598174562345182</v>
       </c>
       <c r="G59" s="8">
         <f t="shared" si="0"/>
-        <v>0.58854643207435076</v>
+        <v>0.54636187832036243</v>
       </c>
       <c r="H59">
-        <f t="shared" si="7"/>
-        <v>7.8400212352518442E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.7301730214616809E-2</v>
       </c>
       <c r="I59">
         <f t="shared" si="3"/>
@@ -5246,15 +5249,15 @@
       </c>
       <c r="F60">
         <f t="shared" si="2"/>
-        <v>-3.1225684943703942</v>
+        <v>-3.4397416068119804</v>
       </c>
       <c r="G60" s="8">
         <f t="shared" si="0"/>
-        <v>4.2185866571045678E-2</v>
+        <v>3.107626357270684E-2</v>
       </c>
       <c r="H60">
-        <f t="shared" si="7"/>
-        <v>7.9537852955709157E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.8378117094022023E-2</v>
       </c>
       <c r="I60">
         <f t="shared" si="3"/>
@@ -5283,15 +5286,15 @@
       </c>
       <c r="F61">
         <f t="shared" si="2"/>
-        <v>1.1745397835150215</v>
+        <v>1.0674866784076418</v>
       </c>
       <c r="G61" s="8">
         <f t="shared" si="0"/>
-        <v>0.7639646224100114</v>
+        <v>0.74411865779934072</v>
       </c>
       <c r="H61">
-        <f t="shared" si="7"/>
-        <v>8.1287884559460039E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.0104659965582151E-2</v>
       </c>
       <c r="I61">
         <f t="shared" si="3"/>
@@ -5320,15 +5323,15 @@
       </c>
       <c r="F62">
         <f t="shared" si="2"/>
-        <v>1.3369445615939926</v>
+        <v>1.2433594844818741</v>
       </c>
       <c r="G62" s="8">
         <f t="shared" si="0"/>
-        <v>0.79198702665616572</v>
+        <v>0.77614823977045755</v>
       </c>
       <c r="H62">
-        <f t="shared" si="7"/>
-        <v>8.04237560595399E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.8886557465614057E-2</v>
       </c>
       <c r="I62">
         <f t="shared" si="3"/>
@@ -5357,15 +5360,15 @@
       </c>
       <c r="F63">
         <f t="shared" si="2"/>
-        <v>3.209671080872508</v>
+        <v>3.1955743511912509</v>
       </c>
       <c r="G63" s="8">
         <f t="shared" si="0"/>
-        <v>0.96119659947475822</v>
+        <v>0.96066739212161312</v>
       </c>
       <c r="H63">
-        <f t="shared" si="7"/>
-        <v>8.1963018095495277E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.0370773972691878E-2</v>
       </c>
       <c r="I63">
         <f t="shared" si="3"/>
@@ -5394,15 +5397,15 @@
       </c>
       <c r="F64">
         <f t="shared" si="2"/>
-        <v>-1.2419666489842971</v>
+        <v>-1.4745943032361621</v>
       </c>
       <c r="G64" s="8">
         <f t="shared" si="0"/>
-        <v>0.22409384753770961</v>
+        <v>0.18624530666213301</v>
       </c>
       <c r="H64">
-        <f t="shared" si="7"/>
-        <v>8.3757623895467315E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.2134684696619081E-2</v>
       </c>
       <c r="I64">
         <f t="shared" si="3"/>
@@ -5431,15 +5434,15 @@
       </c>
       <c r="F65">
         <f t="shared" si="2"/>
-        <v>-3.0867972202278784</v>
+        <v>-3.416299502392814</v>
       </c>
       <c r="G65" s="8">
         <f t="shared" si="0"/>
-        <v>4.3655153767756166E-2</v>
+        <v>3.1789930087177912E-2</v>
       </c>
       <c r="H65">
-        <f t="shared" si="7"/>
-        <v>8.537375734073134E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.3838980263329699E-2</v>
       </c>
       <c r="I65">
         <f t="shared" si="3"/>
@@ -5468,15 +5471,15 @@
       </c>
       <c r="F66">
         <f t="shared" si="2"/>
-        <v>-2.9936374425996002</v>
+        <v>-3.3183011591483753</v>
       </c>
       <c r="G66" s="8">
-        <f t="shared" ref="G66:G101" si="8">1/(1+EXP(-F66))</f>
-        <v>4.771414137237398E-2</v>
+        <f t="shared" ref="G66:G101" si="7">1/(1+EXP(-F66))</f>
+        <v>3.4948660519048047E-2</v>
       </c>
       <c r="H66">
-        <f t="shared" si="7"/>
-        <v>8.7435470917170799E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.5868256812440119E-2</v>
       </c>
       <c r="I66">
         <f t="shared" si="3"/>
@@ -5504,23 +5507,23 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F101" si="9">SUMPRODUCT( B67:D67,N$2:P$2)</f>
-        <v>4.6722093615285551</v>
+        <f t="shared" ref="F67:F101" si="8">SUMPRODUCT( B67:D67,N$2:P$2)</f>
+        <v>4.7461419695466285</v>
       </c>
       <c r="G67" s="8">
-        <f t="shared" si="8"/>
-        <v>0.99073505626216296</v>
+        <f t="shared" si="7"/>
+        <v>0.99138964395479545</v>
       </c>
       <c r="H67">
-        <f t="shared" si="7"/>
-        <v>8.7678952791204093E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.5954490585708337E-2</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I101" si="10">IF(G67&gt;0.5,1,0)</f>
+        <f t="shared" ref="I67:I101" si="9">IF(G67&gt;0.5,1,0)</f>
         <v>1</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J101" si="11">ABS(E67-I67)</f>
+        <f t="shared" ref="J67:J101" si="10">ABS(E67-I67)</f>
         <v>0</v>
       </c>
     </row>
@@ -5541,23 +5544,23 @@
         <v>1</v>
       </c>
       <c r="F68">
+        <f t="shared" si="8"/>
+        <v>1.299349797520386</v>
+      </c>
+      <c r="G68" s="8">
+        <f t="shared" si="7"/>
+        <v>0.78572553469277906</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="6"/>
+        <v>8.5355558132327161E-2</v>
+      </c>
+      <c r="I68">
         <f t="shared" si="9"/>
-        <v>1.4258375815330009</v>
-      </c>
-      <c r="G68" s="8">
-        <f t="shared" si="8"/>
-        <v>0.80625193414283169</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="7"/>
-        <v>8.6499669177076813E-2</v>
-      </c>
-      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J68">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5578,23 +5581,23 @@
         <v>0</v>
       </c>
       <c r="F69">
+        <f t="shared" si="8"/>
+        <v>-2.465033248237126</v>
+      </c>
+      <c r="G69" s="8">
+        <f t="shared" si="7"/>
+        <v>7.8346124140397419E-2</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="6"/>
+        <v>8.5856515722716617E-2</v>
+      </c>
+      <c r="I69">
         <f t="shared" si="9"/>
-        <v>-2.1711883549899165</v>
-      </c>
-      <c r="G69" s="8">
-        <f t="shared" si="8"/>
-        <v>0.10236778553174113</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="7"/>
-        <v>8.6622937131437913E-2</v>
-      </c>
-      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5615,23 +5618,23 @@
         <v>0</v>
       </c>
       <c r="F70">
+        <f t="shared" si="8"/>
+        <v>-3.1074315695352013</v>
+      </c>
+      <c r="G70" s="8">
+        <f t="shared" si="7"/>
+        <v>4.2801748715432235E-2</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="6"/>
+        <v>8.7697793020667963E-2</v>
+      </c>
+      <c r="I70">
         <f t="shared" si="9"/>
-        <v>-2.7914697285823218</v>
-      </c>
-      <c r="G70" s="8">
-        <f t="shared" si="8"/>
-        <v>5.7786880117088144E-2</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="7"/>
-        <v>8.846894867509611E-2</v>
-      </c>
-      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5652,23 +5655,23 @@
         <v>0</v>
       </c>
       <c r="F71">
+        <f t="shared" si="8"/>
+        <v>-3.0344394283798204</v>
+      </c>
+      <c r="G71" s="8">
+        <f t="shared" si="7"/>
+        <v>4.5894041967914738E-2</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="6"/>
+        <v>8.8682432775798709E-2</v>
+      </c>
+      <c r="I71">
         <f t="shared" si="9"/>
-        <v>-2.7352572748055612</v>
-      </c>
-      <c r="G71" s="8">
-        <f t="shared" si="8"/>
-        <v>6.0924683835569871E-2</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="7"/>
-        <v>8.9542711420747947E-2</v>
-      </c>
-      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5689,23 +5692,23 @@
         <v>0</v>
       </c>
       <c r="F72">
+        <f t="shared" si="8"/>
+        <v>-2.6541716126509796</v>
+      </c>
+      <c r="G72" s="8">
+        <f t="shared" si="7"/>
+        <v>6.573235944136982E-2</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="6"/>
+        <v>8.7961183511493554E-2</v>
+      </c>
+      <c r="I72">
         <f t="shared" si="9"/>
-        <v>-2.3641566961858338</v>
-      </c>
-      <c r="G72" s="8">
-        <f t="shared" si="8"/>
-        <v>8.5947081172452561E-2</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="7"/>
-        <v>8.8187730318820629E-2</v>
-      </c>
-      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5726,23 +5729,23 @@
         <v>1</v>
       </c>
       <c r="F73">
+        <f t="shared" si="8"/>
+        <v>3.29910064725519</v>
+      </c>
+      <c r="G73" s="8">
+        <f t="shared" si="7"/>
+        <v>0.96439794475004759</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="6"/>
+        <v>8.8033774481491675E-2</v>
+      </c>
+      <c r="I73">
         <f t="shared" si="9"/>
-        <v>3.2889492435268872</v>
-      </c>
-      <c r="G73" s="8">
-        <f t="shared" si="8"/>
-        <v>0.96404775298360657</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="7"/>
-        <v>8.8423806562933235E-2</v>
-      </c>
-      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5763,23 +5766,23 @@
         <v>0</v>
       </c>
       <c r="F74">
+        <f t="shared" si="8"/>
+        <v>-4.4462308580968042</v>
+      </c>
+      <c r="G74" s="8">
+        <f t="shared" si="7"/>
+        <v>1.1586839530851729E-2</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="6"/>
+        <v>7.8029831897571289E-2</v>
+      </c>
+      <c r="I74">
         <f t="shared" si="9"/>
-        <v>-4.0722191423822478</v>
-      </c>
-      <c r="G74" s="8">
-        <f t="shared" si="8"/>
-        <v>1.6754052138882754E-2</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="7"/>
-        <v>7.9866989311902448E-2</v>
-      </c>
-      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5800,23 +5803,23 @@
         <v>1</v>
       </c>
       <c r="F75">
+        <f t="shared" si="8"/>
+        <v>2.3353528581743026</v>
+      </c>
+      <c r="G75" s="8">
+        <f t="shared" si="7"/>
+        <v>0.91176293133269382</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="6"/>
+        <v>7.9111579499051482E-2</v>
+      </c>
+      <c r="I75">
         <f t="shared" si="9"/>
-        <v>2.3839396918407574</v>
-      </c>
-      <c r="G75" s="8">
-        <f t="shared" si="8"/>
-        <v>0.91559439768934348</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="7"/>
-        <v>8.0712872469122121E-2</v>
-      </c>
-      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5837,23 +5840,23 @@
         <v>0</v>
       </c>
       <c r="F76">
+        <f t="shared" si="8"/>
+        <v>-1.7430961819810262</v>
+      </c>
+      <c r="G76" s="8">
+        <f t="shared" si="7"/>
+        <v>0.14892008874788554</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="6"/>
+        <v>8.1022709320472938E-2</v>
+      </c>
+      <c r="I76">
         <f t="shared" si="9"/>
-        <v>-1.4920568587810381</v>
-      </c>
-      <c r="G76" s="8">
-        <f t="shared" si="8"/>
-        <v>0.1836132048645702</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="7"/>
-        <v>8.2657335432383156E-2</v>
-      </c>
-      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5874,24 +5877,24 @@
         <v>0</v>
       </c>
       <c r="F77">
+        <f t="shared" si="8"/>
+        <v>-7.1623119232575583E-2</v>
+      </c>
+      <c r="G77" s="8">
+        <f t="shared" si="7"/>
+        <v>0.48210187079591077</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="6"/>
+        <v>8.113590664785722E-2</v>
+      </c>
+      <c r="I77">
         <f t="shared" si="9"/>
-        <v>0.10456810476162115</v>
-      </c>
-      <c r="G77" s="8">
-        <f t="shared" si="8"/>
-        <v>0.52611823140131642</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="7"/>
-        <v>8.2972684968964094E-2</v>
-      </c>
-      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.45">
@@ -5911,23 +5914,23 @@
         <v>1</v>
       </c>
       <c r="F78">
+        <f t="shared" si="8"/>
+        <v>3.4633426035036328</v>
+      </c>
+      <c r="G78" s="8">
+        <f t="shared" si="7"/>
+        <v>0.96962656406839431</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="6"/>
+        <v>8.1237303131959246E-2</v>
+      </c>
+      <c r="I78">
         <f t="shared" si="9"/>
-        <v>3.4419381522248718</v>
-      </c>
-      <c r="G78" s="8">
-        <f t="shared" si="8"/>
-        <v>0.96898980749198627</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="7"/>
-        <v>8.2643839236858085E-2</v>
-      </c>
-      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5948,23 +5951,23 @@
         <v>1</v>
       </c>
       <c r="F79">
+        <f t="shared" si="8"/>
+        <v>3.4399871195724327</v>
+      </c>
+      <c r="G79" s="8">
+        <f t="shared" si="7"/>
+        <v>0.96893112809547266</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="6"/>
+        <v>8.0914245232691306E-2</v>
+      </c>
+      <c r="I79">
         <f t="shared" si="9"/>
-        <v>3.45112508812444</v>
-      </c>
-      <c r="G79" s="8">
-        <f t="shared" si="8"/>
-        <v>0.96926467546718753</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="7"/>
-        <v>8.180937956643132E-2</v>
-      </c>
-      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5985,23 +5988,23 @@
         <v>1</v>
       </c>
       <c r="F80">
+        <f t="shared" si="8"/>
+        <v>1.9942445922263525</v>
+      </c>
+      <c r="G80" s="8">
+        <f t="shared" si="7"/>
+        <v>0.88019147147906052</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="6"/>
+        <v>8.2173741851341991E-2</v>
+      </c>
+      <c r="I80">
         <f t="shared" si="9"/>
-        <v>2.0824274981341535</v>
-      </c>
-      <c r="G80" s="8">
-        <f t="shared" si="8"/>
-        <v>0.88918345589669878</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="7"/>
-        <v>8.2867379764356347E-2</v>
-      </c>
-      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6022,23 +6025,23 @@
         <v>1</v>
       </c>
       <c r="F81">
+        <f t="shared" si="8"/>
+        <v>1.0785746747253899</v>
+      </c>
+      <c r="G81" s="8">
+        <f t="shared" si="7"/>
+        <v>0.74622415900909922</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="6"/>
+        <v>8.4046881191967099E-2</v>
+      </c>
+      <c r="I81">
         <f t="shared" si="9"/>
-        <v>1.1799512096860916</v>
-      </c>
-      <c r="G81" s="8">
-        <f t="shared" si="8"/>
-        <v>0.76493903102207672</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="7"/>
-        <v>8.4684920211115317E-2</v>
-      </c>
-      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J81">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6059,23 +6062,23 @@
         <v>0</v>
       </c>
       <c r="F82">
+        <f t="shared" si="8"/>
+        <v>-0.27324576871454909</v>
+      </c>
+      <c r="G82" s="8">
+        <f t="shared" si="7"/>
+        <v>0.43211043773302754</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="6"/>
+        <v>8.5792951179962579E-2</v>
+      </c>
+      <c r="I82">
         <f t="shared" si="9"/>
-        <v>-0.1140410978082147</v>
-      </c>
-      <c r="G82" s="8">
-        <f t="shared" si="8"/>
-        <v>0.47152058430933108</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="7"/>
-        <v>8.6319468224296272E-2</v>
-      </c>
-      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6096,23 +6099,23 @@
         <v>1</v>
       </c>
       <c r="F83">
+        <f t="shared" si="8"/>
+        <v>5.6974795264817502</v>
+      </c>
+      <c r="G83" s="8">
+        <f t="shared" si="7"/>
+        <v>0.99665680493349385</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="6"/>
+        <v>8.5385276930175197E-2</v>
+      </c>
+      <c r="I83">
         <f t="shared" si="9"/>
-        <v>5.5751566435000646</v>
-      </c>
-      <c r="G83" s="8">
-        <f t="shared" si="8"/>
-        <v>0.99622343479334452</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="7"/>
-        <v>8.5935425035858534E-2</v>
-      </c>
-      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6133,23 +6136,23 @@
         <v>0</v>
       </c>
       <c r="F84">
+        <f t="shared" si="8"/>
+        <v>-1.4005388897988986</v>
+      </c>
+      <c r="G84" s="8">
+        <f t="shared" si="7"/>
+        <v>0.19773061169409276</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="6"/>
+        <v>8.490634465648346E-2</v>
+      </c>
+      <c r="I84">
         <f t="shared" si="9"/>
-        <v>-1.1521681939610184</v>
-      </c>
-      <c r="G84" s="8">
-        <f t="shared" si="8"/>
-        <v>0.24009327643260939</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="7"/>
-        <v>8.5482243395594029E-2</v>
-      </c>
-      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6170,23 +6173,23 @@
         <v>1</v>
       </c>
       <c r="F85">
+        <f t="shared" si="8"/>
+        <v>0.31420594170286531</v>
+      </c>
+      <c r="G85" s="8">
+        <f t="shared" si="7"/>
+        <v>0.57791155040299003</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="6"/>
+        <v>8.4463857274094029E-2</v>
+      </c>
+      <c r="I85">
         <f t="shared" si="9"/>
-        <v>0.49295731694681155</v>
-      </c>
-      <c r="G85" s="8">
-        <f t="shared" si="8"/>
-        <v>0.62080285277018643</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="7"/>
-        <v>8.5056073359253109E-2</v>
-      </c>
-      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6207,23 +6210,23 @@
         <v>1</v>
       </c>
       <c r="F86">
+        <f t="shared" si="8"/>
+        <v>2.6449509057209948</v>
+      </c>
+      <c r="G86" s="8">
+        <f t="shared" si="7"/>
+        <v>0.93369910952712665</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="6"/>
+        <v>8.4105208741661802E-2</v>
+      </c>
+      <c r="I86">
         <f t="shared" si="9"/>
-        <v>2.6686560152130392</v>
-      </c>
-      <c r="G86" s="8">
-        <f t="shared" si="8"/>
-        <v>0.93515157563162588</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="7"/>
-        <v>8.4734973296845276E-2</v>
-      </c>
-      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6244,23 +6247,23 @@
         <v>1</v>
       </c>
       <c r="F87">
+        <f t="shared" si="8"/>
+        <v>4.9025557063103857</v>
+      </c>
+      <c r="G87" s="8">
+        <f t="shared" si="7"/>
+        <v>0.99262718604658151</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="6"/>
+        <v>8.3770850727428015E-2</v>
+      </c>
+      <c r="I87">
         <f t="shared" si="9"/>
-        <v>4.8208744234385446</v>
-      </c>
-      <c r="G87" s="8">
-        <f t="shared" si="8"/>
-        <v>0.99200470354766968</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="7"/>
-        <v>8.4455925790536041E-2</v>
-      </c>
-      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6281,23 +6284,23 @@
         <v>1</v>
       </c>
       <c r="F88">
+        <f t="shared" si="8"/>
+        <v>1.4097940672452927</v>
+      </c>
+      <c r="G88" s="8">
+        <f t="shared" si="7"/>
+        <v>0.80373346060088935</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="6"/>
+        <v>8.3388304565389842E-2</v>
+      </c>
+      <c r="I88">
         <f t="shared" si="9"/>
-        <v>1.4953521943606831</v>
-      </c>
-      <c r="G88" s="8">
-        <f t="shared" si="8"/>
-        <v>0.81688024902608969</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="7"/>
-        <v>8.413772797186353E-2</v>
-      </c>
-      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J88">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6318,23 +6321,23 @@
         <v>0</v>
       </c>
       <c r="F89">
+        <f t="shared" si="8"/>
+        <v>-3.0560674337956</v>
+      </c>
+      <c r="G89" s="8">
+        <f t="shared" si="7"/>
+        <v>4.4956246673408133E-2</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="6"/>
+        <v>8.3126847595906689E-2</v>
+      </c>
+      <c r="I89">
         <f t="shared" si="9"/>
-        <v>-2.7328105580434823</v>
-      </c>
-      <c r="G89" s="8">
-        <f t="shared" si="8"/>
-        <v>6.1064817990841798E-2</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="7"/>
-        <v>8.3921210372044766E-2</v>
-      </c>
-      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6355,23 +6358,23 @@
         <v>1</v>
       </c>
       <c r="F90">
+        <f t="shared" si="8"/>
+        <v>1.5767627049635715</v>
+      </c>
+      <c r="G90" s="8">
+        <f t="shared" si="7"/>
+        <v>0.82874554932109856</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="6"/>
+        <v>8.2808611582513583E-2</v>
+      </c>
+      <c r="I90">
         <f t="shared" si="9"/>
-        <v>1.6817490845464667</v>
-      </c>
-      <c r="G90" s="8">
-        <f t="shared" si="8"/>
-        <v>0.84313599985107013</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="7"/>
-        <v>8.3652966259887288E-2</v>
-      </c>
-      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J90">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6392,23 +6395,23 @@
         <v>1</v>
       </c>
       <c r="F91">
+        <f t="shared" si="8"/>
+        <v>4.1962248536343489</v>
+      </c>
+      <c r="G91" s="8">
+        <f t="shared" si="7"/>
+        <v>0.98517091740666307</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="6"/>
+        <v>8.2821084735086342E-2</v>
+      </c>
+      <c r="I91">
         <f t="shared" si="9"/>
-        <v>4.158027238324161</v>
-      </c>
-      <c r="G91" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9846024149571091</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="7"/>
-        <v>8.3677858434701907E-2</v>
-      </c>
-      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J91">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6429,23 +6432,23 @@
         <v>1</v>
       </c>
       <c r="F92">
+        <f t="shared" si="8"/>
+        <v>4.6852685179750884</v>
+      </c>
+      <c r="G92" s="8">
+        <f t="shared" si="7"/>
+        <v>0.99085416262850323</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="6"/>
+        <v>8.2836669352282052E-2</v>
+      </c>
+      <c r="I92">
         <f t="shared" si="9"/>
-        <v>4.6237516003074601</v>
-      </c>
-      <c r="G92" s="8">
-        <f t="shared" si="8"/>
-        <v>0.99027951377741963</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="7"/>
-        <v>8.3718995011329428E-2</v>
-      </c>
-      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J92">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6466,23 +6469,23 @@
         <v>0</v>
       </c>
       <c r="F93">
+        <f t="shared" si="8"/>
+        <v>-2.9037803126411985</v>
+      </c>
+      <c r="G93" s="8">
+        <f t="shared" si="7"/>
+        <v>5.1967004798122621E-2</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="6"/>
+        <v>8.282652263183983E-2</v>
+      </c>
+      <c r="I93">
         <f t="shared" si="9"/>
-        <v>-2.5833302348551515</v>
-      </c>
-      <c r="G93" s="8">
-        <f t="shared" si="8"/>
-        <v>7.0218994124616185E-2</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="7"/>
-        <v>8.3742617584472379E-2</v>
-      </c>
-      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6503,23 +6506,23 @@
         <v>0</v>
       </c>
       <c r="F94">
+        <f t="shared" si="8"/>
+        <v>-1.7996310151178596</v>
+      </c>
+      <c r="G94" s="8">
+        <f t="shared" si="7"/>
+        <v>0.14189598712279794</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="6"/>
+        <v>8.2919170209080351E-2</v>
+      </c>
+      <c r="I94">
         <f t="shared" si="9"/>
-        <v>-1.5492692037734157</v>
-      </c>
-      <c r="G94" s="8">
-        <f t="shared" si="8"/>
-        <v>0.17519184290627893</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="7"/>
-        <v>8.3852275482129451E-2</v>
-      </c>
-      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6540,23 +6543,23 @@
         <v>1</v>
       </c>
       <c r="F95">
+        <f t="shared" si="8"/>
+        <v>3.67896979152184</v>
+      </c>
+      <c r="G95" s="8">
+        <f t="shared" si="7"/>
+        <v>0.97537283741940317</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="6"/>
+        <v>8.2973407247321357E-2</v>
+      </c>
+      <c r="I95">
         <f t="shared" si="9"/>
-        <v>3.6660594580329016</v>
-      </c>
-      <c r="G95" s="8">
-        <f t="shared" si="8"/>
-        <v>0.97506081198249972</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="7"/>
-        <v>8.3927257711186837E-2</v>
-      </c>
-      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J95">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6577,23 +6580,23 @@
         <v>1</v>
       </c>
       <c r="F96">
+        <f t="shared" si="8"/>
+        <v>3.1273634737440394</v>
+      </c>
+      <c r="G96" s="8">
+        <f t="shared" si="7"/>
+        <v>0.95800745566356715</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="6"/>
+        <v>8.2995301663659496E-2</v>
+      </c>
+      <c r="I96">
         <f t="shared" si="9"/>
-        <v>3.1323808354895668</v>
-      </c>
-      <c r="G96" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9582088367709225</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="7"/>
-        <v>8.3969673203768608E-2</v>
-      </c>
-      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J96">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6614,23 +6617,23 @@
         <v>1</v>
       </c>
       <c r="F97">
+        <f t="shared" si="8"/>
+        <v>2.9082188312872632</v>
+      </c>
+      <c r="G97" s="8">
+        <f t="shared" si="7"/>
+        <v>0.94825123085088237</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="6"/>
+        <v>8.2992542891299967E-2</v>
+      </c>
+      <c r="I97">
         <f t="shared" si="9"/>
-        <v>2.9380638945724993</v>
-      </c>
-      <c r="G97" s="8">
-        <f t="shared" si="8"/>
-        <v>0.94969631329752757</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="7"/>
-        <v>8.3994942503196723E-2</v>
-      </c>
-      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J97">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6651,23 +6654,23 @@
         <v>0</v>
       </c>
       <c r="F98">
+        <f t="shared" si="8"/>
+        <v>-2.1369528340314146</v>
+      </c>
+      <c r="G98" s="8">
+        <f t="shared" si="7"/>
+        <v>0.10555674062053494</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="6"/>
+        <v>8.3082560291265609E-2</v>
+      </c>
+      <c r="I98">
         <f t="shared" si="9"/>
-        <v>-1.8644773392792882</v>
-      </c>
-      <c r="G98" s="8">
-        <f t="shared" si="8"/>
-        <v>0.13418203463923156</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="7"/>
-        <v>8.4098782586375334E-2</v>
-      </c>
-      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6688,23 +6691,23 @@
         <v>1</v>
       </c>
       <c r="F99">
+        <f t="shared" si="8"/>
+        <v>3.1250936973268781</v>
+      </c>
+      <c r="G99" s="8">
+        <f t="shared" si="7"/>
+        <v>0.95791604945663467</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="6"/>
+        <v>8.3132330494087053E-2</v>
+      </c>
+      <c r="I99">
         <f t="shared" si="9"/>
-        <v>3.1145083975404075</v>
-      </c>
-      <c r="G99" s="8">
-        <f t="shared" si="8"/>
-        <v>0.95748725095415643</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="7"/>
-        <v>8.4162453735947038E-2</v>
-      </c>
-      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6725,23 +6728,23 @@
         <v>0</v>
       </c>
       <c r="F100">
+        <f t="shared" si="8"/>
+        <v>-1.0081620719895392</v>
+      </c>
+      <c r="G100" s="8">
+        <f t="shared" si="7"/>
+        <v>0.26733969024063559</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="6"/>
+        <v>8.3278095501073818E-2</v>
+      </c>
+      <c r="I100">
         <f t="shared" si="9"/>
-        <v>-0.78315646023920049</v>
-      </c>
-      <c r="G100" s="8">
-        <f t="shared" si="8"/>
-        <v>0.31363999565488343</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="7"/>
-        <v>8.430650977053275E-2</v>
-      </c>
-      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6762,23 +6765,23 @@
         <v>0</v>
       </c>
       <c r="F101">
+        <f t="shared" si="8"/>
+        <v>-4.8652054144312791</v>
+      </c>
+      <c r="G101" s="8">
+        <f t="shared" si="7"/>
+        <v>7.6512512177705659E-3</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="6"/>
+        <v>8.3400594961250102E-2</v>
+      </c>
+      <c r="I101">
         <f t="shared" si="9"/>
-        <v>-4.4666878773965415</v>
-      </c>
-      <c r="G101" s="8">
-        <f t="shared" si="8"/>
-        <v>1.1354879497799071E-2</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="7"/>
-        <v>8.4425726190903341E-2</v>
-      </c>
-      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
